--- a/asset/csv/enemyData.xlsx
+++ b/asset/csv/enemyData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\HAL\就職作品\Stinger\asset\csv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HAL\3\Stinger\asset\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B6A6E0B-D1FC-4111-9D4C-B3C9BC59C638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35C1E003-D833-432D-BE9A-12F3B3BA35D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="template" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
   <si>
     <t>体力</t>
     <rPh sb="0" eb="2">
@@ -36,6 +36,50 @@
   </si>
   <si>
     <t>スタミナ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移動速度</t>
+    <rPh sb="0" eb="4">
+      <t>イドウソクド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>範囲：近</t>
+    <rPh sb="0" eb="2">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>キン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>範囲：中</t>
+    <rPh sb="0" eb="2">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>範囲：遠</t>
+    <rPh sb="0" eb="2">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>オン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>重量</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウリョウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -361,28 +405,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>100</v>
       </c>
       <c r="B2">
         <v>100</v>
+      </c>
+      <c r="C2">
+        <v>2000</v>
+      </c>
+      <c r="D2">
+        <v>1200</v>
+      </c>
+      <c r="E2">
+        <v>30</v>
+      </c>
+      <c r="F2">
+        <v>80</v>
+      </c>
+      <c r="G2">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -394,27 +468,60 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40EA800F-FD21-49F6-A0F8-12D6D21DD308}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="3" max="4" width="8.796875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>100</v>
       </c>
       <c r="B2">
+        <v>100</v>
+      </c>
+      <c r="C2">
+        <v>2000</v>
+      </c>
+      <c r="D2">
+        <v>1200</v>
+      </c>
+      <c r="E2">
+        <v>30</v>
+      </c>
+      <c r="F2">
+        <v>70</v>
+      </c>
+      <c r="G2">
         <v>100</v>
       </c>
     </row>

--- a/asset/csv/enemyData.xlsx
+++ b/asset/csv/enemyData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HAL\3\Stinger\asset\csv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\HAL\就職作品\Stinger\asset\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35C1E003-D833-432D-BE9A-12F3B3BA35D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D7C392A-48A6-44FC-9D72-C3A831F07BC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="template" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
   <si>
     <t>体力</t>
     <rPh sb="0" eb="2">
@@ -79,6 +79,58 @@
     <t>重量</t>
     <rPh sb="0" eb="2">
       <t>ジュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>基礎ステータス</t>
+    <rPh sb="0" eb="2">
+      <t>キソ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>殴り</t>
+    <rPh sb="0" eb="1">
+      <t>ナグ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃力</t>
+    <rPh sb="0" eb="3">
+      <t>コウゲキリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ダメージ倍率</t>
+    <rPh sb="4" eb="6">
+      <t>バイリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スピード倍率</t>
+    <rPh sb="4" eb="6">
+      <t>バイリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>消費スタミナ割合</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ワリアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジャンプ攻撃</t>
+    <rPh sb="4" eb="6">
+      <t>コウゲキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -111,7 +163,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -119,12 +171,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -411,7 +483,7 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
@@ -468,62 +540,148 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40EA800F-FD21-49F6-A0F8-12D6D21DD308}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="3" max="4" width="8.796875" customWidth="1"/>
+    <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2">
+      <c r="I1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1">
         <v>100</v>
       </c>
-      <c r="B2">
+      <c r="C2" s="1">
         <v>100</v>
       </c>
-      <c r="C2">
+      <c r="D2" s="1">
         <v>2000</v>
       </c>
-      <c r="D2">
+      <c r="E2" s="1">
         <v>1200</v>
       </c>
-      <c r="E2">
+      <c r="F2" s="1">
         <v>30</v>
       </c>
-      <c r="F2">
+      <c r="G2" s="1">
         <v>70</v>
       </c>
-      <c r="G2">
+      <c r="H2" s="1">
         <v>100</v>
       </c>
+      <c r="I2" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/asset/csv/enemyData.xlsx
+++ b/asset/csv/enemyData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\HAL\就職作品\Stinger\asset\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D7C392A-48A6-44FC-9D72-C3A831F07BC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCCCC556-E4E2-4B25-9A19-4F707FD21EA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="21585" windowHeight="11325" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="template" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
   <si>
     <t>体力</t>
     <rPh sb="0" eb="2">
@@ -131,6 +131,19 @@
     <t>ジャンプ攻撃</t>
     <rPh sb="4" eb="6">
       <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>振り向き速度</t>
+    <rPh sb="0" eb="1">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ソクド</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -193,10 +206,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -540,10 +554,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40EA800F-FD21-49F6-A0F8-12D6D21DD308}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -553,9 +567,10 @@
     <col min="3" max="3" width="12.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.75" customWidth="1"/>
+    <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -583,8 +598,11 @@
       <c r="I1" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="J1" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:10">
       <c r="A2" s="1"/>
       <c r="B2" s="1">
         <v>100</v>
@@ -610,8 +628,11 @@
       <c r="I2" s="1">
         <v>10</v>
       </c>
+      <c r="J2" s="1">
+        <v>4</v>
+      </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -629,8 +650,9 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:10">
       <c r="A4" s="1"/>
       <c r="B4" s="1">
         <v>1</v>
@@ -646,8 +668,9 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:10">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
@@ -665,8 +688,9 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:10">
       <c r="A6" s="1"/>
       <c r="B6" s="1">
         <v>1</v>
@@ -682,6 +706,7 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/asset/csv/enemyData.xlsx
+++ b/asset/csv/enemyData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\HAL\就職作品\Stinger\asset\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCCCC556-E4E2-4B25-9A19-4F707FD21EA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1243FC13-0088-49B4-B7C5-1AA72A9FBB9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="21585" windowHeight="11325" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="template" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
   <si>
     <t>体力</t>
     <rPh sb="0" eb="2">
@@ -144,6 +144,32 @@
     </rPh>
     <rPh sb="4" eb="6">
       <t>ソクド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スキル後の最大待機時間</t>
+    <rPh sb="3" eb="4">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>タイキジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スキル後の最小待機時間</t>
+    <rPh sb="3" eb="4">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>サイショウ</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>タイキジカン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -206,11 +232,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -554,10 +579,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40EA800F-FD21-49F6-A0F8-12D6D21DD308}">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -568,9 +593,10 @@
     <col min="4" max="4" width="17.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.75" customWidth="1"/>
     <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="23.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -598,11 +624,17 @@
       <c r="I1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" t="s">
         <v>14</v>
       </c>
+      <c r="K1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:12">
       <c r="A2" s="1"/>
       <c r="B2" s="1">
         <v>100</v>
@@ -631,8 +663,14 @@
       <c r="J2" s="1">
         <v>4</v>
       </c>
+      <c r="K2" s="1">
+        <v>1</v>
+      </c>
+      <c r="L2" s="1">
+        <v>5</v>
+      </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:12">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -652,7 +690,7 @@
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:12">
       <c r="A4" s="1"/>
       <c r="B4" s="1">
         <v>1</v>
@@ -670,7 +708,7 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:12">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
@@ -690,7 +728,7 @@
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:12">
       <c r="A6" s="1"/>
       <c r="B6" s="1">
         <v>1</v>

--- a/asset/csv/enemyData.xlsx
+++ b/asset/csv/enemyData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\HAL\就職作品\Stinger\asset\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1243FC13-0088-49B4-B7C5-1AA72A9FBB9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7780CA67-3399-4F4F-98BA-E465441AED39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1470" yWindow="1470" windowWidth="21585" windowHeight="11325" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="template" sheetId="1" r:id="rId1"/>
@@ -104,20 +104,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ダメージ倍率</t>
-    <rPh sb="4" eb="6">
-      <t>バイリツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>スピード倍率</t>
-    <rPh sb="4" eb="6">
-      <t>バイリツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>消費スタミナ割合</t>
     <rPh sb="0" eb="2">
       <t>ショウヒ</t>
@@ -170,6 +156,26 @@
     </rPh>
     <rPh sb="7" eb="11">
       <t>タイキジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃倍率</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>バイリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>速度倍率</t>
+    <rPh sb="0" eb="2">
+      <t>ソクド</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>バイリツ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -582,7 +588,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -625,13 +631,13 @@
         <v>9</v>
       </c>
       <c r="J1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" t="s">
         <v>14</v>
       </c>
-      <c r="K1" t="s">
-        <v>16</v>
-      </c>
       <c r="L1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -675,13 +681,13 @@
         <v>8</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -710,16 +716,16 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>

--- a/asset/csv/enemyData.xlsx
+++ b/asset/csv/enemyData.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\HAL\就職作品\Stinger\asset\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7780CA67-3399-4F4F-98BA-E465441AED39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D90FEA81-2D5D-4CB8-B67D-B3F2C9385C00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="1470" windowWidth="21585" windowHeight="11325" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7215" yWindow="870" windowWidth="21585" windowHeight="11325" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="template" sheetId="1" r:id="rId1"/>
     <sheet name="mawJLaygo" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -588,7 +588,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>

--- a/asset/csv/enemyData.xlsx
+++ b/asset/csv/enemyData.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\HAL\就職作品\Stinger\asset\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D90FEA81-2D5D-4CB8-B67D-B3F2C9385C00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43B34115-34EF-4995-8F61-9879A0A6A61B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7215" yWindow="870" windowWidth="21585" windowHeight="11325" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7215" yWindow="870" windowWidth="21585" windowHeight="11325" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="template" sheetId="1" r:id="rId1"/>
-    <sheet name="mawJLaygo" sheetId="2" r:id="rId2"/>
+    <sheet name="技のパラメータの名前" sheetId="3" r:id="rId2"/>
+    <sheet name="mawJLaygo" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
   <si>
     <t>体力</t>
     <rPh sb="0" eb="2">
@@ -90,13 +91,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>殴り</t>
-    <rPh sb="0" eb="1">
-      <t>ナグ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>攻撃力</t>
     <rPh sb="0" eb="3">
       <t>コウゲキリョク</t>
@@ -104,16 +98,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>消費スタミナ割合</t>
-    <rPh sb="0" eb="2">
-      <t>ショウヒ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ワリアイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ジャンプ攻撃</t>
     <rPh sb="4" eb="6">
       <t>コウゲキ</t>
@@ -170,13 +154,66 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>消費スタミナ割合</t>
+  </si>
+  <si>
+    <t>攻撃倍率</t>
+  </si>
+  <si>
     <t>速度倍率</t>
+    <rPh sb="0" eb="4">
+      <t>ソクドバイリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>消費スタミナ割合</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>右殴り</t>
+    <rPh sb="0" eb="1">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ナグ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>左殴り</t>
+    <rPh sb="0" eb="1">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ナグ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>派生技の発生体力割合</t>
+  </si>
+  <si>
+    <t>派生技の発生体力割合</t>
     <rPh sb="0" eb="2">
-      <t>ソクド</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>バイリツ</t>
-    </rPh>
+      <t>ハセイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ワザ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>タイリョク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ワリアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>派生技の発生体力割合</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -525,7 +562,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -584,18 +621,52 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{983F0E72-AD9C-4905-BDDD-EBD1205C79D3}">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40EA800F-FD21-49F6-A0F8-12D6D21DD308}">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.75" customWidth="1"/>
     <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
@@ -628,16 +699,16 @@
         <v>5</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" t="s">
         <v>12</v>
       </c>
-      <c r="K1" t="s">
-        <v>14</v>
-      </c>
       <c r="L1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -678,17 +749,15 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>10</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -699,14 +768,12 @@
     <row r="4" spans="1:12">
       <c r="A4" s="1"/>
       <c r="B4" s="1">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="C4" s="1">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0</v>
-      </c>
+        <v>0.8</v>
+      </c>
+      <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -716,17 +783,15 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>10</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -737,14 +802,12 @@
     <row r="6" spans="1:12">
       <c r="A6" s="1"/>
       <c r="B6" s="1">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="C6" s="1">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0.3</v>
-      </c>
+        <v>0.7</v>
+      </c>
+      <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -752,6 +815,40 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/asset/csv/enemyData.xlsx
+++ b/asset/csv/enemyData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\HAL\就職作品\Stinger\asset\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43B34115-34EF-4995-8F61-9879A0A6A61B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61062737-439E-431A-9906-D5D5C11063A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7215" yWindow="870" windowWidth="21585" windowHeight="11325" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2025" windowWidth="21585" windowHeight="11325" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="template" sheetId="1" r:id="rId1"/>
@@ -659,7 +659,7 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -720,7 +720,7 @@
         <v>100</v>
       </c>
       <c r="D2" s="1">
-        <v>2000</v>
+        <v>60</v>
       </c>
       <c r="E2" s="1">
         <v>1200</v>

--- a/asset/csv/enemyData.xlsx
+++ b/asset/csv/enemyData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\HAL\就職作品\Stinger\asset\csv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HAL\3\Stinger\asset\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61062737-439E-431A-9906-D5D5C11063A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A469731D-CCCE-4FFA-816B-52D273B76BC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2025" windowWidth="21585" windowHeight="11325" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="template" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
   <si>
     <t>体力</t>
     <rPh sb="0" eb="2">
@@ -144,16 +144,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>攻撃倍率</t>
-    <rPh sb="0" eb="2">
-      <t>コウゲキ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>バイリツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>消費スタミナ割合</t>
   </si>
   <si>
@@ -167,10 +157,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>消費スタミナ割合</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>右殴り</t>
     <rPh sb="0" eb="1">
       <t>ミギ</t>
@@ -194,7 +180,32 @@
     <t>派生技の発生体力割合</t>
   </si>
   <si>
-    <t>派生技の発生体力割合</t>
+    <t>ダメージ終了時間_割合</t>
+    <rPh sb="4" eb="6">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ダメージ開始時間_割合</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>消費スタミナ_割合</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃_倍率</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>バイリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>派生技の発生体力_割合</t>
     <rPh sb="0" eb="2">
       <t>ハセイ</t>
     </rPh>
@@ -207,13 +218,13 @@
     <rPh sb="6" eb="8">
       <t>タイリョク</t>
     </rPh>
-    <rPh sb="8" eb="10">
+    <rPh sb="9" eb="11">
       <t>ワリアイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>派生技の発生体力割合</t>
+    <t>派生技の発生体力_割合</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -565,7 +576,7 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
@@ -628,24 +639,24 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" t="s">
-        <v>16</v>
-      </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -658,17 +669,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40EA800F-FD21-49F6-A0F8-12D6D21DD308}">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.75" customWidth="1"/>
+    <col min="1" max="1" width="15.09765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.8984375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="23.5" bestFit="1" customWidth="1"/>
   </cols>
@@ -749,13 +760,13 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -783,13 +794,13 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -820,13 +831,17 @@
         <v>9</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
@@ -841,8 +856,12 @@
       <c r="C8" s="1">
         <v>0.3</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+      <c r="D8" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.6</v>
+      </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>

--- a/asset/csv/enemyData.xlsx
+++ b/asset/csv/enemyData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HAL\3\Stinger\asset\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A469731D-CCCE-4FFA-816B-52D273B76BC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5223884-9C9A-4B84-8AEB-E8D32ED91557}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
   <si>
     <t>体力</t>
     <rPh sb="0" eb="2">
@@ -669,8 +669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40EA800F-FD21-49F6-A0F8-12D6D21DD308}">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -768,8 +768,12 @@
       <c r="C3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
@@ -784,8 +788,12 @@
       <c r="C4" s="1">
         <v>0.8</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+      <c r="D4" s="1">
+        <v>0.48</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.69</v>
+      </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -802,8 +810,12 @@
       <c r="C5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+      <c r="D5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
@@ -818,8 +830,12 @@
       <c r="C6" s="1">
         <v>0.7</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="D6" s="1">
+        <v>0.48</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.69</v>
+      </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>

--- a/asset/csv/enemyData.xlsx
+++ b/asset/csv/enemyData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HAL\3\Stinger\asset\csv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\HAL\就職作品\Stinger\asset\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5223884-9C9A-4B84-8AEB-E8D32ED91557}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19FB9150-C1DE-40C0-ADC1-BF566FC49E0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2025" windowWidth="21585" windowHeight="11325" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="template" sheetId="1" r:id="rId1"/>
@@ -576,7 +576,7 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
@@ -639,10 +639,10 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="3" max="3" width="17.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -670,16 +670,16 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="15.09765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.69921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.8984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="23.5" bestFit="1" customWidth="1"/>
   </cols>
@@ -734,7 +734,7 @@
         <v>60</v>
       </c>
       <c r="E2" s="1">
-        <v>1200</v>
+        <v>120</v>
       </c>
       <c r="F2" s="1">
         <v>30</v>

--- a/asset/csv/enemyData.xlsx
+++ b/asset/csv/enemyData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\HAL\就職作品\Stinger\asset\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19FB9150-C1DE-40C0-ADC1-BF566FC49E0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{157907EB-86D6-45D3-9257-1CC11AA32A8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2730" yWindow="2025" windowWidth="21585" windowHeight="11325" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="28">
   <si>
     <t>体力</t>
     <rPh sb="0" eb="2">
@@ -225,6 +225,21 @@
   </si>
   <si>
     <t>派生技の発生体力_割合</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>雷球発射</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃_倍率</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>弾速</t>
+    <rPh sb="0" eb="2">
+      <t>ダンソク</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -667,10 +682,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40EA800F-FD21-49F6-A0F8-12D6D21DD308}">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -884,6 +899,30 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="C10" s="1">
+        <v>170</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/asset/csv/enemyData.xlsx
+++ b/asset/csv/enemyData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\HAL\就職作品\Stinger\asset\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{157907EB-86D6-45D3-9257-1CC11AA32A8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AAD435A-1D99-4F94-9112-B54B5703308F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2730" yWindow="2025" windowWidth="21585" windowHeight="11325" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
   <si>
     <t>体力</t>
     <rPh sb="0" eb="2">
@@ -240,6 +240,30 @@
     <rPh sb="0" eb="2">
       <t>ダンソク</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>派生技移行時間_割合</t>
+    <rPh sb="0" eb="3">
+      <t>ハセイワザ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ワリアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>派生技の発生体力_割合</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>派生技移行時間_割合</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -685,7 +709,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -695,6 +719,8 @@
     <col min="3" max="3" width="21.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="23.5" bestFit="1" customWidth="1"/>
   </cols>
@@ -789,7 +815,9 @@
       <c r="E3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="2"/>
+      <c r="F3" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -809,7 +837,9 @@
       <c r="E4" s="1">
         <v>0.69</v>
       </c>
-      <c r="F4" s="1"/>
+      <c r="F4" s="1">
+        <v>0.7</v>
+      </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -873,8 +903,12 @@
       <c r="E7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
@@ -893,8 +927,12 @@
       <c r="E8" s="1">
         <v>0.6</v>
       </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="F8" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.3</v>
+      </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>

--- a/asset/csv/enemyData.xlsx
+++ b/asset/csv/enemyData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\HAL\就職作品\Stinger\asset\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AAD435A-1D99-4F94-9112-B54B5703308F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49BF207A-1455-4A37-930B-932620B47F65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2730" yWindow="2025" windowWidth="21585" windowHeight="11325" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
   <si>
     <t>体力</t>
     <rPh sb="0" eb="2">
@@ -264,6 +264,19 @@
   </si>
   <si>
     <t>派生技移行時間_割合</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>派生技発生_確率</t>
+    <rPh sb="0" eb="3">
+      <t>ハセイワザ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カクリツ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -709,7 +722,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -721,6 +734,7 @@
     <col min="5" max="5" width="23.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="23.5" bestFit="1" customWidth="1"/>
   </cols>
@@ -909,7 +923,9 @@
       <c r="G7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="2"/>
+      <c r="H7" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
     </row>
@@ -933,7 +949,9 @@
       <c r="G8" s="1">
         <v>0.3</v>
       </c>
-      <c r="H8" s="1"/>
+      <c r="H8" s="1">
+        <v>70</v>
+      </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>

--- a/asset/csv/enemyData.xlsx
+++ b/asset/csv/enemyData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\HAL\就職作品\Stinger\asset\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49BF207A-1455-4A37-930B-932620B47F65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E5D27FB-BE11-4C4B-BE01-C117CAA33BBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2730" yWindow="2025" windowWidth="21585" windowHeight="11325" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
   <si>
     <t>体力</t>
     <rPh sb="0" eb="2">
@@ -277,6 +277,21 @@
     <rPh sb="6" eb="8">
       <t>カクリツ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>右パンチ</t>
+  </si>
+  <si>
+    <t>攻撃_倍率</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ダメージ開始時間_割合</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ダメージ終了時間_割合</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -719,10 +734,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40EA800F-FD21-49F6-A0F8-12D6D21DD308}">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -979,6 +994,34 @@
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.48</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.69</v>
+      </c>
+      <c r="E12" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/asset/csv/enemyData.xlsx
+++ b/asset/csv/enemyData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\HAL\就職作品\Stinger\asset\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E5D27FB-BE11-4C4B-BE01-C117CAA33BBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A78E9F20-A676-4A53-92FF-8820B101E109}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2730" yWindow="2025" windowWidth="21585" windowHeight="11325" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -737,7 +737,7 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1015,10 +1015,10 @@
         <v>0.7</v>
       </c>
       <c r="C12" s="1">
-        <v>0.48</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="D12" s="1">
-        <v>0.69</v>
+        <v>0.6</v>
       </c>
       <c r="E12" s="1"/>
     </row>

--- a/asset/csv/enemyData.xlsx
+++ b/asset/csv/enemyData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\HAL\就職作品\Stinger\asset\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A78E9F20-A676-4A53-92FF-8820B101E109}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1D30CD6-7FAC-4E2D-BF56-567274F0B9A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2730" yWindow="2025" windowWidth="21585" windowHeight="11325" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="38">
   <si>
     <t>体力</t>
     <rPh sb="0" eb="2">
@@ -292,6 +292,20 @@
   </si>
   <si>
     <t>ダメージ終了時間_割合</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アニメーション速度_倍率</t>
+    <rPh sb="7" eb="9">
+      <t>ソクド</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>バイリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パリィでのよろけ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -734,16 +748,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40EA800F-FD21-49F6-A0F8-12D6D21DD308}">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.875" bestFit="1" customWidth="1"/>
@@ -807,7 +821,7 @@
         <v>120</v>
       </c>
       <c r="F2" s="1">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G2" s="1">
         <v>70</v>
@@ -1021,6 +1035,22 @@
         <v>0.6</v>
       </c>
       <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C14" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/asset/csv/enemyData.xlsx
+++ b/asset/csv/enemyData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\HAL\就職作品\Stinger\asset\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1D30CD6-7FAC-4E2D-BF56-567274F0B9A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C580F6D-962C-44C8-BBA6-3CDD2C80D366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2730" yWindow="2025" windowWidth="21585" windowHeight="11325" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -821,7 +821,7 @@
         <v>120</v>
       </c>
       <c r="F2" s="1">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G2" s="1">
         <v>70</v>

--- a/asset/csv/enemyData.xlsx
+++ b/asset/csv/enemyData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\HAL\就職作品\Stinger\asset\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C580F6D-962C-44C8-BBA6-3CDD2C80D366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{506F2A34-63D1-43A0-8B51-7D5976F243E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2025" windowWidth="21585" windowHeight="11325" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="template" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="34">
   <si>
     <t>体力</t>
     <rPh sb="0" eb="2">
@@ -205,29 +205,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>派生技の発生体力_割合</t>
-    <rPh sb="0" eb="2">
-      <t>ハセイ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ワザ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ハッセイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>タイリョク</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ワリアイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>派生技の発生体力_割合</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>雷球発射</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -259,28 +236,8 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>派生技の発生体力_割合</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>派生技移行時間_割合</t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>派生技発生_確率</t>
-    <rPh sb="0" eb="3">
-      <t>ハセイワザ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ハッセイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>カクリツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>右パンチ</t>
   </si>
   <si>
     <t>攻撃_倍率</t>
@@ -306,6 +263,13 @@
   </si>
   <si>
     <t>パリィでのよろけ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>右高速パンチ</t>
+    <rPh sb="1" eb="3">
+      <t>コウソク</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -751,7 +715,7 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -850,16 +814,13 @@
         <v>22</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
@@ -872,15 +833,12 @@
         <v>0.8</v>
       </c>
       <c r="C4" s="1">
-        <v>0.8</v>
+        <v>0.48</v>
       </c>
       <c r="D4" s="1">
-        <v>0.48</v>
+        <v>0.69</v>
       </c>
       <c r="E4" s="1">
-        <v>0.69</v>
-      </c>
-      <c r="F4" s="1">
         <v>0.7</v>
       </c>
       <c r="G4" s="1"/>
@@ -896,15 +854,12 @@
         <v>22</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="2"/>
+      <c r="E5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -916,15 +871,12 @@
         <v>0.8</v>
       </c>
       <c r="C6" s="1">
-        <v>0.7</v>
+        <v>0.48</v>
       </c>
       <c r="D6" s="1">
-        <v>0.48</v>
-      </c>
-      <c r="E6" s="1">
         <v>0.69</v>
       </c>
-      <c r="F6" s="1"/>
+      <c r="E6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -947,14 +899,9 @@
         <v>19</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>31</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
     </row>
@@ -973,26 +920,21 @@
         <v>0.6</v>
       </c>
       <c r="F8" s="1">
-        <v>0.75</v>
-      </c>
-      <c r="G8" s="1">
         <v>0.3</v>
       </c>
-      <c r="H8" s="1">
-        <v>70</v>
-      </c>
+      <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -1010,16 +952,16 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E11" s="2"/>
     </row>
@@ -1038,10 +980,10 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C13" s="2"/>
     </row>

--- a/asset/csv/enemyData.xlsx
+++ b/asset/csv/enemyData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\HAL\就職作品\Stinger\asset\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{506F2A34-63D1-43A0-8B51-7D5976F243E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7596F7C-BBBA-4203-BA6D-23E40B463246}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="34">
   <si>
     <t>体力</t>
     <rPh sb="0" eb="2">
@@ -715,7 +715,7 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -985,14 +985,18 @@
       <c r="B13" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="2"/>
+      <c r="C13" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="1"/>
       <c r="B14" s="1">
         <v>0.5</v>
       </c>
-      <c r="C14" s="1"/>
+      <c r="C14" s="1">
+        <v>0.1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/asset/csv/enemyData.xlsx
+++ b/asset/csv/enemyData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\HAL\就職作品\Stinger\asset\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7596F7C-BBBA-4203-BA6D-23E40B463246}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD6CDD1B-5870-45EC-9292-F6265176DFDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2025" windowWidth="21585" windowHeight="11325" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="template" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="32">
   <si>
     <t>体力</t>
     <rPh sb="0" eb="2">
@@ -217,26 +217,6 @@
     <rPh sb="0" eb="2">
       <t>ダンソク</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>派生技移行時間_割合</t>
-    <rPh sb="0" eb="3">
-      <t>ハセイワザ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>イコウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ワリアイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>派生技移行時間_割合</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -715,7 +695,7 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -784,19 +764,19 @@
       <c r="E2" s="1">
         <v>120</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2">
         <v>30</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2">
         <v>70</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2">
         <v>100</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2">
         <v>10</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2">
         <v>4</v>
       </c>
       <c r="K2" s="1">
@@ -819,13 +799,7 @@
       <c r="D3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
+      <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1"/>
@@ -838,13 +812,7 @@
       <c r="D4" s="1">
         <v>0.69</v>
       </c>
-      <c r="E4" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
+      <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="2" t="s">
@@ -860,10 +828,6 @@
         <v>19</v>
       </c>
       <c r="E5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1"/>
@@ -877,10 +841,6 @@
         <v>0.69</v>
       </c>
       <c r="E6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="2" t="s">
@@ -898,12 +858,6 @@
       <c r="E7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1"/>
@@ -919,12 +873,6 @@
       <c r="E8" s="1">
         <v>0.6</v>
       </c>
-      <c r="F8" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="2" t="s">
@@ -952,16 +900,16 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="E11" s="2"/>
     </row>
@@ -980,10 +928,10 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>21</v>

--- a/asset/csv/enemyData.xlsx
+++ b/asset/csv/enemyData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\HAL\就職作品\Stinger\asset\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD6CDD1B-5870-45EC-9292-F6265176DFDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78FDDC45-13F5-4136-877D-61753F9F7E64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2730" yWindow="2025" windowWidth="21585" windowHeight="11325" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -311,10 +311,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -695,7 +696,7 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -740,7 +741,7 @@
       <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="3" t="s">
         <v>10</v>
       </c>
       <c r="K1" t="s">
@@ -764,19 +765,19 @@
       <c r="E2" s="1">
         <v>120</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="1">
         <v>30</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="1">
         <v>70</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="1">
         <v>100</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="1">
         <v>10</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="1">
         <v>4</v>
       </c>
       <c r="K2" s="1">

--- a/asset/csv/enemyData.xlsx
+++ b/asset/csv/enemyData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\HAL\就職作品\Stinger\asset\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78FDDC45-13F5-4136-877D-61753F9F7E64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C88DF99-E1DE-42C8-8920-1C0B106911E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2730" yWindow="2025" windowWidth="21585" windowHeight="11325" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="34">
   <si>
     <t>体力</t>
     <rPh sb="0" eb="2">
@@ -249,6 +249,19 @@
     <t>右高速パンチ</t>
     <rPh sb="1" eb="3">
       <t>コウソク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ライトニングバースト</t>
+  </si>
+  <si>
+    <t>攻撃_倍率</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>バイリツ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -311,11 +324,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -693,15 +705,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40EA800F-FD21-49F6-A0F8-12D6D21DD308}">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28.75" bestFit="1" customWidth="1"/>
@@ -741,7 +753,7 @@
       <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" t="s">
         <v>10</v>
       </c>
       <c r="K1" t="s">
@@ -944,6 +956,26 @@
         <v>0.5</v>
       </c>
       <c r="C14" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="C16" s="1">
         <v>0.1</v>
       </c>
     </row>

--- a/asset/csv/enemyData.xlsx
+++ b/asset/csv/enemyData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\HAL\就職作品\Stinger\asset\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C88DF99-E1DE-42C8-8920-1C0B106911E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{764324EA-F24B-4B75-BC8C-C9FA7208D130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2730" yWindow="2025" windowWidth="21585" windowHeight="11325" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -708,7 +708,7 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -878,7 +878,7 @@
         <v>1.2</v>
       </c>
       <c r="C8" s="1">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="D8" s="1">
         <v>0.38</v>

--- a/asset/csv/enemyData.xlsx
+++ b/asset/csv/enemyData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\HAL\就職作品\Stinger\asset\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{764324EA-F24B-4B75-BC8C-C9FA7208D130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1CEB622-1A5E-4C62-86BA-4C30D765911D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2730" yWindow="2025" windowWidth="21585" windowHeight="11325" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="35">
   <si>
     <t>体力</t>
     <rPh sb="0" eb="2">
@@ -263,6 +263,10 @@
     <rPh sb="3" eb="5">
       <t>バイリツ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ライトニングフォワードレイン</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -705,15 +709,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40EA800F-FD21-49F6-A0F8-12D6D21DD308}">
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="21.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28.75" bestFit="1" customWidth="1"/>
@@ -969,6 +973,9 @@
       <c r="C15" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="D15" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="1"/>
@@ -977,6 +984,29 @@
       </c>
       <c r="C16" s="1">
         <v>0.1</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.68</v>
       </c>
     </row>
   </sheetData>

--- a/asset/csv/enemyData.xlsx
+++ b/asset/csv/enemyData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\HAL\就職作品\Stinger\asset\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1CEB622-1A5E-4C62-86BA-4C30D765911D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ECDEA8C-37A0-42A9-8076-89798E8313CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2025" windowWidth="21585" windowHeight="11325" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="template" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="36">
   <si>
     <t>体力</t>
     <rPh sb="0" eb="2">
@@ -267,6 +267,16 @@
   </si>
   <si>
     <t>ライトニングフォワードレイン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>発射_時間</t>
+    <rPh sb="0" eb="2">
+      <t>ハッシャ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジカン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -712,7 +722,7 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -974,7 +984,7 @@
         <v>21</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -997,7 +1007,7 @@
         <v>22</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:3">

--- a/asset/csv/enemyData.xlsx
+++ b/asset/csv/enemyData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\HAL\就職作品\Stinger\asset\csv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HAL\3\Stinger\asset\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ECDEA8C-37A0-42A9-8076-89798E8313CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E31C4FD-7B02-4BC4-9DCE-0E58710C4F41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="template" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="38">
   <si>
     <t>体力</t>
     <rPh sb="0" eb="2">
@@ -277,6 +277,17 @@
     <rPh sb="3" eb="5">
       <t>ジカン</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>死亡</t>
+    <rPh sb="0" eb="2">
+      <t>シボウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アニメーション速度変更_時間</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -628,7 +639,7 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
@@ -691,10 +702,10 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -719,22 +730,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40EA800F-FD21-49F6-A0F8-12D6D21DD308}">
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="29.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.59765625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.09765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.69921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.8984375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.3984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.09765625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="23.5" bestFit="1" customWidth="1"/>
   </cols>
@@ -1019,6 +1030,26 @@
         <v>0.68</v>
       </c>
     </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/asset/csv/enemyData.xlsx
+++ b/asset/csv/enemyData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HAL\3\Stinger\asset\csv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\HAL\就職作品\Stinger\asset\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E31C4FD-7B02-4BC4-9DCE-0E58710C4F41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8287E09-89B8-4007-8EB6-9911DFA0F751}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2025" windowWidth="21585" windowHeight="11325" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="template" sheetId="1" r:id="rId1"/>
@@ -639,7 +639,7 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
@@ -702,10 +702,10 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="3" max="3" width="17.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -732,20 +732,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40EA800F-FD21-49F6-A0F8-12D6D21DD308}">
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="29.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.09765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.69921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.8984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.3984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.09765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="23.5" bestFit="1" customWidth="1"/>
   </cols>
@@ -1047,7 +1047,7 @@
         <v>0.12</v>
       </c>
       <c r="C20" s="1">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
     </row>
   </sheetData>

--- a/asset/csv/enemyData.xlsx
+++ b/asset/csv/enemyData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\HAL\就職作品\Stinger\asset\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8287E09-89B8-4007-8EB6-9911DFA0F751}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{481223CE-126B-40B0-AA91-D1F231414D98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2025" windowWidth="21585" windowHeight="11325" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="template" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="38">
   <si>
     <t>体力</t>
     <rPh sb="0" eb="2">
@@ -732,8 +732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40EA800F-FD21-49F6-A0F8-12D6D21DD308}">
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -812,7 +812,7 @@
         <v>100</v>
       </c>
       <c r="I2" s="1">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="J2" s="1">
         <v>4</v>
